--- a/tutorial_5/myfiles/myfile.xlsx
+++ b/tutorial_5/myfiles/myfile.xlsx
@@ -428,7 +428,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,7 +438,7 @@
     <col min="3" max="3" width="63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -449,7 +449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -460,7 +460,7 @@
         <v>212000.22500000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -471,7 +471,7 @@
         <v>212000.22500000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -482,7 +482,7 @@
         <v>212000.22500000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
